--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3248696.141639067</v>
+        <v>3324225.811303872</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>750090.4478952222</v>
+        <v>584747.0114511211</v>
       </c>
     </row>
     <row r="8">
@@ -665,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>58.80045981415089</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>62.62994551992853</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,7 +718,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.5968436493441</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>322.7838378298593</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>167.1638115488394</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>32.63347393903395</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>72.2613558152741</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,16 +1135,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>249.052978741094</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>190.0385781666419</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.16154086980895</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>65.51651982872623</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1385,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113193</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1531,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1579,7 +1581,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>33.35146980185943</v>
+        <v>106.2835578420354</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174145</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>15.45373134607614</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>58.80693578170198</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1898,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>94.16481274941263</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>14.73664328357096</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>45.44745406739275</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>3.937262440096772</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2485,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>206.8064269214864</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2615,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>70.7001831180248</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>49.38162151975428</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113184</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2849,7 +2851,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2998,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>187.8326399421087</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3083,7 +3085,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3232,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.09913002577782</v>
       </c>
       <c r="V34" t="n">
-        <v>14.73664328357096</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3281,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784703</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3427,19 +3429,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3475,22 +3477,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>75.20980776229423</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467007</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>174.7430637258776</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750046</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206845</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4037,10 +4039,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>63.17794444905995</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1095.753074569373</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>1095.753074569373</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1095.753074569373</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2578.857830316465</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2360.223163288527</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2106.461377926619</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2106.461377926619</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>1753.692722656504</v>
       </c>
       <c r="X2" t="n">
-        <v>1485.892406545185</v>
+        <v>1753.692722656504</v>
       </c>
       <c r="Y2" t="n">
-        <v>1095.753074569373</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4425,7 +4427,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>536.6170209242687</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>536.6170209242687</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>536.6170209242687</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>554.3221432721089</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="C5" t="n">
-        <v>228.2778626358874</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="D5" t="n">
-        <v>228.2778626358874</v>
+        <v>1205.211005614513</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.061315312042</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y5" t="n">
-        <v>940.9219833362306</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,19 +4646,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>404.9282174162494</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C7" t="n">
-        <v>404.9282174162494</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>404.9282174162494</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>404.9282174162494</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>404.9282174162494</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545818</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4749,28 @@
         <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>665.7489600711332</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>665.7489600711332</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>665.7489600711332</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>665.7489600711332</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>411.0644718652463</v>
       </c>
       <c r="W7" t="n">
-        <v>625.7207965597795</v>
+        <v>411.0644718652463</v>
       </c>
       <c r="X7" t="n">
-        <v>625.7207965597795</v>
+        <v>411.0644718652463</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.9282174162494</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1878.515311311824</v>
+        <v>1001.280783616703</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
@@ -4805,16 +4807,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1936.146930626914</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1583.3782753568</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>1391.420115592515</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.515311311824</v>
+        <v>1001.280783616703</v>
       </c>
     </row>
     <row r="9">
@@ -4890,13 +4892,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>706.7536903985465</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>706.7536903985465</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>706.7536903985465</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>479.4455030671483</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>190.2718927217162</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V10" t="n">
-        <v>190.2718927217162</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>388.8958536704857</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L12" t="n">
-        <v>618.8589595388348</v>
+        <v>841.2209420433995</v>
       </c>
       <c r="M12" t="n">
-        <v>1387.227105931297</v>
+        <v>1609.589088435861</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.747761568914</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O12" t="n">
-        <v>1980.501175652877</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P12" t="n">
-        <v>2500.801797388624</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028589</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028589</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119729</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247867</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383449</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V13" t="n">
-        <v>420.322614832458</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954974</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028589</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028589</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5273,55 +5275,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>388.8958536704857</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>618.8589595388348</v>
+        <v>998.0351573716434</v>
       </c>
       <c r="M15" t="n">
-        <v>1387.227105931297</v>
+        <v>1318.370476901345</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.747761568914</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O15" t="n">
-        <v>2360.905457152158</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P15" t="n">
-        <v>2543.548934765509</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.6350999123426</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="C16" t="n">
-        <v>247.6350999123426</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
         <v>247.6350999123426</v>
@@ -5428,22 +5430,22 @@
         <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1483.306440915402</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1483.306440915402</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>1194.17780212896</v>
+        <v>904.7347965907436</v>
       </c>
       <c r="V16" t="n">
-        <v>939.4933139230729</v>
+        <v>904.7347965907436</v>
       </c>
       <c r="W16" t="n">
-        <v>650.0761438861124</v>
+        <v>615.317626553783</v>
       </c>
       <c r="X16" t="n">
-        <v>650.0761438861124</v>
+        <v>615.317626553783</v>
       </c>
       <c r="Y16" t="n">
-        <v>429.2835647425823</v>
+        <v>394.5250474102529</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5504,19 +5506,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5525,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5537,10 +5539,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5558,7 +5560,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>155.2994472586685</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>280.6570073165059</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L18" t="n">
-        <v>894.5540770733946</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M18" t="n">
-        <v>1214.889396603096</v>
+        <v>865.5852378527474</v>
       </c>
       <c r="N18" t="n">
-        <v>1559.410052240715</v>
+        <v>1669.996816116898</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>564.1830073829216</v>
+        <v>192.33306393444</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>192.33306393444</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>192.33306393444</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>192.33306393444</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>192.33306393444</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>192.33306393444</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557903</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V19" t="n">
-        <v>1484.03077229167</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W19" t="n">
-        <v>1194.613602254709</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="X19" t="n">
-        <v>966.6240513566914</v>
+        <v>192.33306393444</v>
       </c>
       <c r="Y19" t="n">
-        <v>745.8314722131613</v>
+        <v>192.33306393444</v>
       </c>
     </row>
     <row r="20">
@@ -5729,40 +5731,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5774,22 +5776,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L21" t="n">
-        <v>901.6749225845922</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M21" t="n">
-        <v>1222.010242114294</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N21" t="n">
-        <v>2026.421820378445</v>
+        <v>1843.889457459129</v>
       </c>
       <c r="O21" t="n">
-        <v>2536.440602918915</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>699.5778825909703</v>
+        <v>438.3056288361466</v>
       </c>
       <c r="C22" t="n">
-        <v>699.5778825909703</v>
+        <v>269.3694459082398</v>
       </c>
       <c r="D22" t="n">
-        <v>549.4612431786345</v>
+        <v>269.3694459082398</v>
       </c>
       <c r="E22" t="n">
-        <v>401.5481495962414</v>
+        <v>269.3694459082398</v>
       </c>
       <c r="F22" t="n">
-        <v>254.658202098331</v>
+        <v>269.3694459082398</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>101.1941242280604</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V22" t="n">
-        <v>1209.787631771461</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="W22" t="n">
-        <v>920.3704617345004</v>
+        <v>619.9540936663864</v>
       </c>
       <c r="X22" t="n">
-        <v>920.3704617345004</v>
+        <v>619.9540936663864</v>
       </c>
       <c r="Y22" t="n">
-        <v>699.5778825909703</v>
+        <v>619.9540936663864</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5996,43 +5998,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,22 +6071,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>263.5382936126482</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L24" t="n">
-        <v>877.435363369537</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M24" t="n">
-        <v>877.435363369537</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N24" t="n">
-        <v>1207.29799103357</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6151,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1090.100879744681</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954967</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6218,34 +6220,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6291,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>904.3916683255102</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1224.726987855212</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
-        <v>1886.437184265811</v>
+        <v>2107.322705390779</v>
       </c>
       <c r="O27" t="n">
-        <v>2135.190598349773</v>
+        <v>2386.862770609477</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2591.885251391686</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>893.5623804327212</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C28" t="n">
-        <v>822.1480540508779</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D28" t="n">
-        <v>822.1480540508779</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6388,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1449.035844780373</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1225.250429569879</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.210845262961</v>
+        <v>936.1217907834367</v>
       </c>
       <c r="V28" t="n">
-        <v>1075.210845262961</v>
+        <v>681.4373025775499</v>
       </c>
       <c r="W28" t="n">
-        <v>1075.210845262961</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="X28" t="n">
-        <v>1075.210845262961</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="Y28" t="n">
-        <v>1075.210845262961</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>208.0331683468643</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>333.3907284047017</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L30" t="n">
-        <v>947.2877981615904</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M30" t="n">
-        <v>1267.623117691292</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N30" t="n">
-        <v>2072.034695955443</v>
+        <v>1501.327696442332</v>
       </c>
       <c r="O30" t="n">
-        <v>2320.788110039405</v>
+        <v>2170.791457744991</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1309.18633122244</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T31" t="n">
-        <v>1085.400916011945</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U31" t="n">
-        <v>796.2722772255036</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V31" t="n">
-        <v>796.2722772255036</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>506.8551071885429</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>278.8655562905255</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6680,52 +6682,52 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6774,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147082</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L33" t="n">
-        <v>684.1208130436053</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M33" t="n">
-        <v>1452.488959436067</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N33" t="n">
-        <v>2256.900537700218</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O33" t="n">
-        <v>2536.440602918915</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>564.1830073829216</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C34" t="n">
-        <v>395.2468244550147</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D34" t="n">
         <v>245.130185042679</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6874,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557903</v>
+        <v>1130.245268120353</v>
       </c>
       <c r="V34" t="n">
-        <v>1484.03077229167</v>
+        <v>875.5607799144661</v>
       </c>
       <c r="W34" t="n">
-        <v>1194.613602254709</v>
+        <v>875.5607799144661</v>
       </c>
       <c r="X34" t="n">
-        <v>966.6240513566914</v>
+        <v>647.5712290164488</v>
       </c>
       <c r="Y34" t="n">
-        <v>745.8314722131613</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>138.7081686256435</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>385.4732965321077</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1153.841442924569</v>
+        <v>1241.529009893327</v>
       </c>
       <c r="N36" t="n">
-        <v>1958.25302118872</v>
+        <v>1571.391637557359</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>712.8170085027681</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>712.8170085027681</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>1298.996260473455</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>1009.579090436494</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>933.6095876462982</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>712.8170085027681</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,49 +7159,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7208,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>473.8437298546977</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L39" t="n">
-        <v>473.8437298546977</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M39" t="n">
-        <v>794.1790493843995</v>
+        <v>1735.190018338844</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022017</v>
+        <v>2079.710673976462</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.210845262961</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765191</v>
+        <v>4452.039182201071</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706323</v>
+        <v>4197.354693995184</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336716</v>
+        <v>3907.937523958223</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>3679.947973060206</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,46 +7396,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7445,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>658.5774644300484</v>
       </c>
       <c r="M42" t="n">
-        <v>1608.660951743751</v>
+        <v>1426.94561082251</v>
       </c>
       <c r="N42" t="n">
-        <v>1953.181607381369</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O42" t="n">
-        <v>2201.935021465331</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>265.3924131404652</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="C43" t="n">
-        <v>265.3924131404652</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347409</v>
+        <v>4520.375241843982</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609669</v>
+        <v>4231.24660305754</v>
       </c>
       <c r="V43" t="n">
-        <v>731.31772835508</v>
+        <v>3976.562114851653</v>
       </c>
       <c r="W43" t="n">
-        <v>441.9005583181194</v>
+        <v>3687.144944814692</v>
       </c>
       <c r="X43" t="n">
-        <v>441.9005583181194</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="Y43" t="n">
-        <v>441.9005583181194</v>
+        <v>3459.155393916675</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7661,37 +7663,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028589</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028589</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028589</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M45" t="n">
-        <v>865.5852378527475</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N45" t="n">
-        <v>1210.105893490365</v>
+        <v>2191.638684195447</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347409</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347409</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>1275.130855347409</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>1275.130855347409</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>1275.130855347409</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>1211.314749843308</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360588</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8538,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8784,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9240,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>16.7588673060858</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9264,7 +9266,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9495,7 +9497,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9717,28 +9719,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>324.5711212852626</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9966,16 +9968,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>70.02525224365733</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10206,13 +10208,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>24.99768416407369</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,16 +10442,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10676,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>94.57074316089694</v>
+        <v>254.8900816811462</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10905,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10917,13 +10919,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11160,7 +11162,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11394,10 +11396,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23467,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>192.3581855871777</v>
+        <v>119.4260975470017</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>182.4670786375271</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>227.4304166168754</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>54.74901561812349</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>237.401000040257</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>121.0461143959848</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>144.9765659274394</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24373,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>112.0695782210724</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>14.74113413690284</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>96.54663798060304</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,19 +24651,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>148.539188463849</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24886,16 +24888,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>10.08817004149458</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25120,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>229.1382223727995</v>
       </c>
       <c r="V34" t="n">
-        <v>237.401000040257</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,19 +25317,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25363,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>150.4998476267429</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25597,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>103.0576765518767</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5.088916456059678</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25834,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>82.3938331833846</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26077,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>155.4067089030348</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147616</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147616</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147614</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147617</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380334</v>
+      </c>
+      <c r="C2" t="n">
         <v>677359.4601380335</v>
-      </c>
-      <c r="C2" t="n">
-        <v>677359.4601380333</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="F2" t="n">
+        <v>645197.9485672192</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645197.9485672192</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645197.9485672192</v>
+      </c>
+      <c r="I2" t="n">
         <v>645197.9485672193</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>645197.9485672192</v>
+      </c>
+      <c r="K2" t="n">
         <v>645197.9485672194</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>645197.9485672192</v>
+      </c>
+      <c r="M2" t="n">
         <v>645197.9485672193</v>
       </c>
-      <c r="I2" t="n">
-        <v>645197.9485672194</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645197.9485672195</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>645197.9485672193</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>645197.9485672197</v>
       </c>
-      <c r="M2" t="n">
-        <v>645197.9485672194</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645197.9485672194</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645197.9485672194</v>
-      </c>
       <c r="P2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672191</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768966</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758697</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758024</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="H4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="H4" t="n">
-        <v>787.7936905758696</v>
-      </c>
       <c r="I4" t="n">
-        <v>787.7936905758692</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758929</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758102</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="N4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="O4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="O4" t="n">
-        <v>787.7936905758695</v>
-      </c>
       <c r="P4" t="n">
-        <v>787.7936905757878</v>
+        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26478,16 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26494,22 +26496,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-134526.6363205396</v>
       </c>
       <c r="C6" t="n">
-        <v>455441.2428940048</v>
+        <v>455441.2428940049</v>
       </c>
       <c r="D6" t="n">
         <v>455441.242894005</v>
       </c>
       <c r="E6" t="n">
-        <v>27262.7924510304</v>
+        <v>27262.79245103091</v>
       </c>
       <c r="F6" t="n">
+        <v>552422.8289279267</v>
+      </c>
+      <c r="G6" t="n">
+        <v>552422.8289279267</v>
+      </c>
+      <c r="H6" t="n">
+        <v>552422.8289279267</v>
+      </c>
+      <c r="I6" t="n">
+        <v>552422.8289279268</v>
+      </c>
+      <c r="J6" t="n">
+        <v>375999.6097353338</v>
+      </c>
+      <c r="K6" t="n">
         <v>552422.828927927</v>
       </c>
-      <c r="G6" t="n">
-        <v>552422.828927927</v>
-      </c>
-      <c r="H6" t="n">
-        <v>552422.8289279268</v>
-      </c>
-      <c r="I6" t="n">
-        <v>552422.828927927</v>
-      </c>
-      <c r="J6" t="n">
-        <v>375999.6097353341</v>
-      </c>
-      <c r="K6" t="n">
-        <v>552422.8289279268</v>
-      </c>
       <c r="L6" t="n">
-        <v>552422.8289279272</v>
+        <v>552422.8289279267</v>
       </c>
       <c r="M6" t="n">
         <v>417621.8136940897</v>
       </c>
       <c r="N6" t="n">
-        <v>552422.828927927</v>
+        <v>552422.8289279268</v>
       </c>
       <c r="O6" t="n">
-        <v>552422.828927927</v>
+        <v>552422.8289279272</v>
       </c>
       <c r="P6" t="n">
-        <v>552422.8289279272</v>
+        <v>552422.8289279266</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26796,10 +26798,10 @@
         <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26820,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26829,7 +26831,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>323.1299102581109</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>111.785767289043</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>22.54869530067481</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>243.2051448974512</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>42.48905394114826</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>214.7665585234223</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27786,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27797,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>114.0317180411239</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,10 +27833,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>214.2616425213169</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,16 +27855,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>116.2199130299135</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>179.6925225118271</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28055,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.961209085105356</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>186.6211234951018</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31367,7 +31369,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653236</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>224.608063135924</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458551</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>53.91631260018633</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,25 +32074,25 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>262.5905971701978</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>384.2467489891728</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32099,13 +32101,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565511</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>229.3640204507201</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,34 +32548,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>20.08736789078279</v>
       </c>
       <c r="O21" t="n">
-        <v>263.9044125823311</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565502</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,34 +32785,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>151.6102905369467</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041472</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>320.3934755282635</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>171.9901114440537</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>202.771728792391</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>394.9841349460419</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>85.8059355396081</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>416.2240155371397</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,28 +34207,28 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>40.11970191031679</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>241.4090972701575</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,10 +34444,10 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -34454,19 +34456,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>342.0950976293426</v>
+        <v>0.5433631145229469</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,7 +35029,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>456.894028659509</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004665</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>525.556183571462</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>124.0118262500139</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>494.8765626937828</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004663</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>635.5128238214579</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35747,7 +35749,7 @@
         <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>58.66904626099252</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594836</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>480.6300952830052</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>368.088030151003</v>
       </c>
       <c r="O21" t="n">
-        <v>515.1704874146162</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>499.6109527971669</v>
       </c>
       <c r="O24" t="n">
-        <v>606.9348235263708</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303314</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>668.3941377884837</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>32.0083373580322</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>111.935431198564</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>387.2600900179979</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>274.2553891200981</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>742.9847972062621</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>376.9344454020052</v>
+        <v>537.2537839222543</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>212.4297335778277</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>739.7950453651213</v>
       </c>
       <c r="N39" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594836</v>
+        <v>272.4056674339018</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>425.8974584957645</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>593.3611724616277</v>
+        <v>251.809437946808</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3324225.811303872</v>
+        <v>3317208.796412161</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>584747.0114511211</v>
+        <v>633999.1199946151</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>47.38082832435647</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S2" t="n">
-        <v>62.62994551992853</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -718,16 +718,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229386</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>156.1271626621475</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>43.31785343913981</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>167.1638115488394</v>
+        <v>104.8161677931376</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>43.31785343913998</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>32.63347393903395</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>362.4006936231285</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>190.0385781666419</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>65.51651982872623</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710094</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>35.14106019251198</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>106.2835578420354</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1660,7 +1660,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1821,19 +1821,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>58.80693578170198</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>94.16481274941263</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467005</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>3.937262440096772</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532057</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>110.9819272899561</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>33.35146980185879</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>49.38162151975428</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>118.4898845065119</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>143.3158222056515</v>
       </c>
     </row>
     <row r="32">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>57.09913002577782</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>183.1796758467007</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
-        <v>139.1537278750046</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1289.017815868391</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4345,37 +4345,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2578.857830316465</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T2" t="n">
-        <v>2360.223163288527</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2106.461377926619</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.461377926619</v>
+        <v>1662.483574129471</v>
       </c>
       <c r="W2" t="n">
-        <v>1753.692722656504</v>
+        <v>1662.483574129471</v>
       </c>
       <c r="X2" t="n">
-        <v>1753.692722656504</v>
+        <v>1289.017815868391</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.553390680693</v>
+        <v>1289.017815868391</v>
       </c>
     </row>
     <row r="3">
@@ -4385,73 +4385,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517454</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152627</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="W4" t="n">
-        <v>684.3735766921516</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="X4" t="n">
-        <v>456.3840257941342</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1563.476704221264</v>
+        <v>549.649320534154</v>
       </c>
       <c r="C5" t="n">
-        <v>1563.476704221264</v>
+        <v>180.6868035937422</v>
       </c>
       <c r="D5" t="n">
-        <v>1205.211005614513</v>
+        <v>180.6868035937422</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4600,19 +4600,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1563.476704221264</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1563.476704221264</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y5" t="n">
-        <v>1563.476704221264</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="6">
@@ -4649,28 +4649,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2718927217162</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>665.7489600711332</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>665.7489600711332</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>665.7489600711332</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>665.7489600711332</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>411.0644718652463</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>411.0644718652463</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>411.0644718652463</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.2718927217162</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1001.280783616703</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C8" t="n">
-        <v>632.3182666762914</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762914</v>
+        <v>819.7159451700466</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>433.9276925718023</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1936.146930626914</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1583.3782753568</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1391.420115592515</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y8" t="n">
-        <v>1001.280783616703</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4901,7 +4901,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036446</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>217.9192350259435</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K12" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L12" t="n">
-        <v>841.2209420433995</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="M12" t="n">
-        <v>1609.589088435861</v>
+        <v>854.588748493614</v>
       </c>
       <c r="N12" t="n">
-        <v>1954.109744073479</v>
+        <v>1659.000326757765</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.3337308726216</v>
+        <v>620.2426249169056</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>451.3064419889987</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>898.7925182488382</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="V13" t="n">
-        <v>644.1080300429513</v>
+        <v>620.2426249169056</v>
       </c>
       <c r="W13" t="n">
-        <v>354.6908600059907</v>
+        <v>620.2426249169056</v>
       </c>
       <c r="X13" t="n">
-        <v>247.3337308726216</v>
+        <v>620.2426249169056</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.3337308726216</v>
+        <v>620.2426249169056</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5275,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5302,10 +5302,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L15" t="n">
-        <v>998.0351573716434</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>1318.370476901345</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N15" t="n">
-        <v>2122.782055165496</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O15" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>904.7347965907436</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V16" t="n">
-        <v>904.7347965907436</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W16" t="n">
-        <v>615.317626553783</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X16" t="n">
-        <v>615.317626553783</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5530,16 +5530,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5551,13 +5551,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614725</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>865.5852378527474</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N18" t="n">
-        <v>1669.996816116898</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
-        <v>2145.820610447073</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>192.33306393444</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>192.33306393444</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>192.33306393444</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>192.33306393444</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>192.33306393444</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>192.33306393444</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383442</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>420.3226148324574</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>420.3226148324574</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>192.33306393444</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.33306393444</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5731,25 +5731,25 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5776,22 +5776,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L21" t="n">
-        <v>711.1141612171745</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>1479.482307609636</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.889457459129</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.642871543091</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>438.3056288361466</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>269.3694459082398</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>269.3694459082398</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>269.3694459082398</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>269.3694459082398</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>101.1941242280604</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1164.055751909234</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>909.3712637033469</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>619.9540936663864</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>619.9540936663864</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>619.9540936663864</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6013,22 +6013,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L24" t="n">
-        <v>618.8589595388348</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>939.1942790685366</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>1433.809122337732</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.9054447954967</v>
+        <v>731.6365520183392</v>
       </c>
       <c r="C25" t="n">
-        <v>130.9054447954967</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="D25" t="n">
-        <v>130.9054447954967</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E25" t="n">
-        <v>130.9054447954967</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>964.135741824786</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383442</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V25" t="n">
-        <v>420.3226148324574</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W25" t="n">
-        <v>130.9054447954967</v>
+        <v>843.7395088768808</v>
       </c>
       <c r="X25" t="n">
-        <v>130.9054447954967</v>
+        <v>843.7395088768808</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.9054447954967</v>
+        <v>843.7395088768808</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>2107.322705390779</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>2386.862770609477</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2591.885251391686</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1449.035844780373</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1225.250429569879</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>936.1217907834367</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>681.4373025775499</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>392.0201325405893</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6463,10 +6463,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6545,22 +6545,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>836.4717212750119</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>1156.807040804714</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
-        <v>1501.327696442332</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>2170.791457744991</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6648,22 +6648,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1379.229518531123</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y31" t="n">
         <v>97.21709146028584</v>
@@ -6694,16 +6694,16 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>618.8589595388348</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1387.227105931296</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>2122.782055165496</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1130.245268120353</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>875.5607799144661</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>875.5607799144661</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>647.5712290164488</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>426.7786498729187</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,31 +6925,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7016,22 +7016,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.529009893327</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
-        <v>1571.391637557359</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
         <v>2623.573505376138</v>
@@ -7125,16 +7125,16 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
         <v>97.21709146028584</v>
@@ -7153,46 +7153,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>1002.792923427374</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1735.190018338844</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>2079.710673976462</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>4637.069157803799</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>4452.039182201071</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>4197.354693995184</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>3907.937523958223</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>3679.947973060206</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,22 +7390,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7414,16 +7414,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7438,22 +7438,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7490,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>658.5774644300484</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>1426.94561082251</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>1771.466266460128</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4660.934562929845</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>4520.375241843982</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>4231.24660305754</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>3976.562114851653</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>3687.144944814692</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7636,13 +7636,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7675,10 +7675,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7727,22 +7727,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>388.8958536704856</v>
+        <v>436.8967109626374</v>
       </c>
       <c r="L45" t="n">
-        <v>618.8589595388348</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M45" t="n">
-        <v>1387.227105931296</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N45" t="n">
-        <v>2191.638684195447</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
         <v>2623.573505376138</v>
@@ -7833,22 +7833,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9020,13 +9020,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9257,16 +9257,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9731,16 +9731,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9968,16 +9968,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10670,22 +10670,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>254.8900816811462</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10916,16 +10916,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>113.4744128257004</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>119.4260975470017</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23664,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>227.4304166168754</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23907,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>54.74901561812349</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>144.9765659274394</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>68.85005289198115</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>112.0695782210724</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>148.539188463849</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>79.43092547709136</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>75.26883114644332</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>229.1382223727995</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>103.0576765518767</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
-        <v>82.3938331833846</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147617</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147617</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147614</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147616</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147616</v>
       </c>
     </row>
     <row r="15">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="E2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="F2" t="n">
-        <v>645197.9485672192</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="G2" t="n">
-        <v>645197.9485672192</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="H2" t="n">
-        <v>645197.9485672192</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="I2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="J2" t="n">
         <v>645197.9485672192</v>
@@ -26343,19 +26343,19 @@
         <v>645197.9485672194</v>
       </c>
       <c r="L2" t="n">
-        <v>645197.9485672192</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="M2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="N2" t="n">
+        <v>645197.9485672195</v>
+      </c>
+      <c r="O2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="P2" t="n">
         <v>645197.9485672193</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645197.9485672193</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645197.9485672197</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645197.9485672191</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.139180619</v>
+      </c>
+      <c r="C4" t="n">
+        <v>139059.139180619</v>
+      </c>
+      <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
-      <c r="C4" t="n">
-        <v>139059.1391806191</v>
-      </c>
-      <c r="D4" t="n">
-        <v>139059.139180619</v>
-      </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905757878</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758216</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758695</v>
@@ -26450,16 +26450,16 @@
         <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="N4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="N4" t="n">
-        <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26469,31 +26469,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26502,10 +26502,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134526.6363205396</v>
+        <v>-134526.63632054</v>
       </c>
       <c r="C6" t="n">
-        <v>455441.2428940049</v>
+        <v>455441.242894005</v>
       </c>
       <c r="D6" t="n">
-        <v>455441.242894005</v>
+        <v>455441.2428940053</v>
       </c>
       <c r="E6" t="n">
-        <v>27262.79245103091</v>
+        <v>26288.20119130885</v>
       </c>
       <c r="F6" t="n">
-        <v>552422.8289279267</v>
+        <v>551448.2376682053</v>
       </c>
       <c r="G6" t="n">
-        <v>552422.8289279267</v>
+        <v>551448.2376682054</v>
       </c>
       <c r="H6" t="n">
-        <v>552422.8289279267</v>
+        <v>551448.2376682053</v>
       </c>
       <c r="I6" t="n">
-        <v>552422.8289279268</v>
+        <v>551448.2376682054</v>
       </c>
       <c r="J6" t="n">
-        <v>375999.6097353338</v>
+        <v>375025.0184756122</v>
       </c>
       <c r="K6" t="n">
-        <v>552422.828927927</v>
+        <v>551448.2376682053</v>
       </c>
       <c r="L6" t="n">
-        <v>552422.8289279267</v>
+        <v>551448.2376682053</v>
       </c>
       <c r="M6" t="n">
-        <v>417621.8136940897</v>
+        <v>416647.222434368</v>
       </c>
       <c r="N6" t="n">
-        <v>552422.8289279268</v>
+        <v>551448.2376682054</v>
       </c>
       <c r="O6" t="n">
-        <v>552422.8289279272</v>
+        <v>551448.2376682053</v>
       </c>
       <c r="P6" t="n">
-        <v>552422.8289279266</v>
+        <v>551448.2376682052</v>
       </c>
     </row>
   </sheetData>
@@ -26737,31 +26737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26770,10 +26770,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.926370499018</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>317.8920634466511</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>111.785767289043</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787143</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>243.2051448974512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>214.7665585234223</v>
+        <v>277.1142022791242</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9289676594879</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27794,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>114.0317180411239</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>44.47535211858298</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>179.6925225118271</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>17.49548950841407</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,10 +28067,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>186.6211234951018</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-1.800799509510398e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -31044,46 +31044,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>167.9005868329997</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31220,28 +31220,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31369,7 +31369,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>11.76595806653236</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31384,10 +31384,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>139.4326257134861</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034983</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>35.71704454958012</v>
+        <v>139.432625713487</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>224.608063135924</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>26.4101703627411</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304433</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,22 +32074,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>262.5905971701978</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,34 +32311,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O18" t="n">
-        <v>229.3640204507201</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.452637254088</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,34 +32548,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>20.08736789078279</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,34 +32785,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>151.6102905369467</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446455</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,34 +33022,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>171.9901114440537</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33265,28 +33265,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>202.771728792391</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33499,19 +33499,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>394.9841349460419</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33523,7 +33523,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,16 +33675,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,28 +33745,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,16 +33912,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,37 +33973,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>416.2240155371397</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34155,7 +34155,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S41" t="n">
         <v>76.0697047810465</v>
@@ -34210,22 +34210,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>40.11970191031679</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -34234,7 +34234,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34392,7 +34392,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S44" t="n">
         <v>76.0697047810465</v>
@@ -34447,13 +34447,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>216.4869287318324</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724846</v>
@@ -34462,7 +34462,7 @@
         <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>0.5433631145229469</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -34471,7 +34471,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677465</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932199</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,10 +34859,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M4" t="n">
         <v>146.3614835535656</v>
@@ -34871,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35032,10 +35032,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>323.920986939093</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>323.920986939094</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>456.894028659509</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>349.9812001907227</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109065</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>494.8765626937828</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M18" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O18" t="n">
-        <v>480.6300952830052</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951466</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>368.088030151003</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>499.6109527971669</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>32.0083373580322</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>387.2600900179979</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>742.9847972062621</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37326,10 +37326,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O36" t="n">
-        <v>537.2537839222543</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>739.7950453651213</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>272.4056674339018</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>343.1107267700521</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
         <v>776.1294408004662</v>
@@ -38110,10 +38110,10 @@
         <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>251.809437946808</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3317208.796412161</v>
+        <v>3322148.059261193</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>47.38082832435647</v>
+        <v>47.38082832435557</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481165</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229386</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>156.1271626621475</v>
+        <v>156.1271626621472</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -1056,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>43.31785343913998</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>25.31590541686252</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>338.258489544897</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>362.4006936231285</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>162.3364906735232</v>
+        <v>59.72683757586824</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710094</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>35.14106019251198</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>157.0348050617321</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1660,10 +1660,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>228.9317911316679</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>183.1796758467005</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>204.1291651532057</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>110.9819272899561</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2766,7 +2766,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505273999</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>176.8407062429507</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>31.42218700821035</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4188,10 +4188,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1289.017815868391</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C2" t="n">
         <v>1241.158393318536</v>
@@ -4321,61 +4321,61 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473041</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.483574129471</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.483574129471</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1289.017815868391</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1289.017815868391</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="3">
@@ -4400,37 +4400,37 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571351</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517454</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537798</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152627</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
@@ -4464,55 +4464,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
         <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
         <v>570.4247794971948</v>
@@ -4521,19 +4521,19 @@
         <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4637,10 +4637,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97.69838933464726</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4767,10 +4767,10 @@
         <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084171</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>279.346854164887</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776797</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>819.7159451700466</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>433.9276925718023</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>67.86638588177352</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4822,28 +4822,28 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="X8" t="n">
         <v>2323.683332757142</v>
@@ -4880,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
         <v>2627.754532504894</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694736</v>
+        <v>728.128984206434</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694736</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Y10" t="n">
-        <v>217.9192350259435</v>
+        <v>728.128984206434</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5038,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5053,40 +5053,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,19 +5117,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M12" t="n">
-        <v>854.588748493614</v>
+        <v>854.5887484936142</v>
       </c>
       <c r="N12" t="n">
         <v>1659.000326757765</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>620.2426249169056</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C13" t="n">
-        <v>451.3064419889987</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D13" t="n">
-        <v>415.8104215925219</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925219</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>874.9271131227924</v>
+        <v>1116.509840133537</v>
       </c>
       <c r="V13" t="n">
-        <v>620.2426249169056</v>
+        <v>861.8253519276506</v>
       </c>
       <c r="W13" t="n">
-        <v>620.2426249169056</v>
+        <v>861.8253519276506</v>
       </c>
       <c r="X13" t="n">
-        <v>620.2426249169056</v>
+        <v>633.8358010296332</v>
       </c>
       <c r="Y13" t="n">
-        <v>620.2426249169056</v>
+        <v>413.0432218861031</v>
       </c>
     </row>
     <row r="14">
@@ -5275,7 +5275,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
@@ -5290,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5302,10 +5302,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5354,13 +5354,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
         <v>1122.004430061687</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765191</v>
+        <v>843.9666117966292</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706323</v>
+        <v>843.9666117966292</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336716</v>
+        <v>843.9666117966292</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>615.9770608986119</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="17">
@@ -5512,34 +5512,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5591,13 +5591,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
         <v>1122.004430061687</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5758,7 +5758,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5776,28 +5776,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,13 +5828,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
         <v>1122.004430061687</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514091</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6056,19 +6056,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
         <v>508.1073603047986</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>731.6365520183392</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1133.156678913841</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>843.7395088768808</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>843.7395088768808</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>843.7395088768808</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6250,13 +6250,13 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6302,13 +6302,13 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L27" t="n">
         <v>1122.004430061687</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822454</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6654,16 +6654,16 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
         <v>97.21709146028584</v>
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6724,28 +6724,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6776,10 +6776,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
         <v>508.1073603047985</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C37" t="n">
         <v>97.21709146028584</v>
@@ -7125,22 +7125,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,13 +7162,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7365,19 +7365,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7390,34 +7390,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7438,22 +7438,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7596,10 +7596,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
         <v>869.3083006011506</v>
@@ -7836,7 +7836,7 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
         <v>869.3083006011506</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>113.4744128257004</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>129.2025473368452</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>57.30556126690942</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>103.0576765518769</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.85005289198115</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>75.26883114644332</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25365,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>75.29693708087729</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>194.2874683808268</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147616</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147616</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147616</v>
       </c>
     </row>
     <row r="10">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380337</v>
@@ -26325,37 +26325,37 @@
         <v>645197.9485672194</v>
       </c>
       <c r="F2" t="n">
+        <v>645197.9485672195</v>
+      </c>
+      <c r="G2" t="n">
         <v>645197.9485672194</v>
-      </c>
-      <c r="G2" t="n">
-        <v>645197.9485672195</v>
       </c>
       <c r="H2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="I2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="J2" t="n">
         <v>645197.9485672192</v>
       </c>
       <c r="K2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="L2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="M2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="N2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="O2" t="n">
         <v>645197.9485672195</v>
       </c>
-      <c r="O2" t="n">
-        <v>645197.9485672194</v>
-      </c>
       <c r="P2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672192</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145448</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905757878</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758216</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758695</v>
@@ -26456,7 +26456,7 @@
         <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758695</v>
@@ -26469,31 +26469,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340944</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134526.63632054</v>
+        <v>-134526.6363205395</v>
       </c>
       <c r="C6" t="n">
-        <v>455441.242894005</v>
+        <v>455441.2428940049</v>
       </c>
       <c r="D6" t="n">
-        <v>455441.2428940053</v>
+        <v>455441.2428940054</v>
       </c>
       <c r="E6" t="n">
-        <v>26288.20119130885</v>
+        <v>27165.33332505838</v>
       </c>
       <c r="F6" t="n">
-        <v>551448.2376682053</v>
+        <v>552325.3698019549</v>
       </c>
       <c r="G6" t="n">
-        <v>551448.2376682054</v>
+        <v>552325.3698019548</v>
       </c>
       <c r="H6" t="n">
-        <v>551448.2376682053</v>
+        <v>552325.3698019548</v>
       </c>
       <c r="I6" t="n">
-        <v>551448.2376682054</v>
+        <v>552325.3698019548</v>
       </c>
       <c r="J6" t="n">
-        <v>375025.0184756122</v>
+        <v>375902.1506093615</v>
       </c>
       <c r="K6" t="n">
-        <v>551448.2376682053</v>
+        <v>552325.3698019549</v>
       </c>
       <c r="L6" t="n">
-        <v>551448.2376682053</v>
+        <v>552325.3698019549</v>
       </c>
       <c r="M6" t="n">
-        <v>416647.222434368</v>
+        <v>417524.3545681176</v>
       </c>
       <c r="N6" t="n">
-        <v>551448.2376682054</v>
+        <v>552325.3698019548</v>
       </c>
       <c r="O6" t="n">
-        <v>551448.2376682053</v>
+        <v>552325.3698019549</v>
       </c>
       <c r="P6" t="n">
-        <v>551448.2376682052</v>
+        <v>552325.3698019546</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>317.8920634466511</v>
+        <v>317.892063446652</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>56.01837628787143</v>
+        <v>56.01837628787166</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>123.9289676594879</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>193.2687479352323</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>44.47535211858354</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>44.47535211858298</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17.49548950841407</v>
+        <v>120.1051426060691</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853703</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -31044,10 +31044,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31056,34 +31056,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>167.9005868329997</v>
+        <v>167.900586832999</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31220,28 +31220,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31521,40 +31521,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>139.432625713487</v>
+        <v>139.4326257134875</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>26.4101703627411</v>
+        <v>26.41017036274133</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304433</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,22 +32074,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>392.6063366508801</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,22 +32311,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>392.6063366508801</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.452637254088</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,22 +32548,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>392.6063366508801</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32970,7 +32970,7 @@
         <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446455</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S26" t="n">
         <v>76.06970478104651</v>
@@ -34155,7 +34155,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
         <v>76.0697047810465</v>
@@ -34704,22 +34704,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932199</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
@@ -34859,10 +34859,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
         <v>146.3614835535656</v>
@@ -34871,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770686</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35269,7 +35269,7 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>323.920986939094</v>
+        <v>323.9209869390944</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>349.9812001907227</v>
+        <v>349.9812001907229</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109065</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>740.6069989111003</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>740.6069989111003</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951466</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>740.6069989111003</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
